--- a/ACUD SysSpec.xlsx
+++ b/ACUD SysSpec.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共用\Github\ACUD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="419" yWindow="131" windowWidth="16979" windowHeight="6860"/>
+    <workbookView xWindow="420" yWindow="130" windowWidth="16980" windowHeight="6860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
-  <si>
-    <t>Project Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
   <si>
     <t>P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACP On requestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P1 Turn on detected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Active during check out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Room ＞ Setting Tempeture１℃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,46 +179,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Check In</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Confirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC→ACUD  (DO002 Enter)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ACUD→PC  (DONE002) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC→ACUD  (C002CO Enter)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC→ACUD  (C002MO Enter)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ACUD→PC  (A002MO) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aircond. Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACUD→PC  (A002CO)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Turn On Cooler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,14 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC→ACUD  (C002CC Enter)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ACUD→PC  (A002CC) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Remote Control from PC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,47 +199,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Turn on aircond.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PC→ACUD  (C002CI Enter)   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACUD→PC  (A002CI)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Change to Cooler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC→ACUD  (C002AC Enter)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACUD→PC  (A002AC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Change to Heater</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">PC→ACUD  (C002AH Enter) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ACUD→PC  (A002AH) </t>
+    <t>ACP request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No need to reactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp. Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change Key present Tempeture setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change Key absent Tempeture setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check In: Turn on aircond.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Out: Turn on aircond.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Mode activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Mode Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Mode Period Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC→ACUD  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACUD→PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC→ACUD </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUD→PC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC→ACUD </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUD→PC  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(A002MO) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(A002CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(DO002 Enter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(DONE002) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C002MO Enter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(C002CI Enter)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C002CO Enter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUD→PC  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(A002CO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C002CC Enter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUD→PC   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(A002CC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC→ACUD  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C002AC Enter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUD→PC  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(A002AC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC→ACUD   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C002AH Enter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUD→PC   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(A002AH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC→ACUD  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C002ST10~35 Enter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUD→PC  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(A002ST10~35) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C002IT10~35 Enter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUD→PC  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(A002IT10~35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C002OT10~35 Enter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUD→PC  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(A002OT10~35) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC→ACUD  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C002RU00~60 Enter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(A002RU00~60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W141 H2100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -399,11 +520,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -422,19 +558,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,6 +566,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -488,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,9 +652,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,6 +687,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -729,16 +863,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B2:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
@@ -749,502 +886,730 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="2" t="s">
+      <c r="C8" s="6"/>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="D6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="D7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="2" t="s">
+      <c r="F20" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="F12" s="1" t="s">
+      <c r="F21" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="8" t="s">
+      <c r="H27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="28" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="1" t="s">
+      <c r="F32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5" t="s">
+      <c r="F33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="E26" s="10" t="s">
+    </row>
+    <row r="41" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5" t="s">
+      <c r="F50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="H52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="F39" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="D40" s="1" t="s">
+      <c r="H53" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="F41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="1" t="s">
+    </row>
+    <row r="62" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F65" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="H65" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="F43" s="1" t="s">
+      <c r="F66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="D44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="F45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="F70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="F47" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="D48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6">
-      <c r="F49" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6">
-      <c r="D50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="F74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
-      <c r="F51" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6">
-      <c r="D52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6">
-      <c r="F53" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6">
-      <c r="D54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6">
-      <c r="F55" s="1" t="s">
+    <row r="75" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="4:6">
-      <c r="D56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6">
-      <c r="F57" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6">
-      <c r="D58" s="1" t="s">
+      <c r="K76" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6">
-      <c r="F59" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6">
-      <c r="D60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6">
-      <c r="F61" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:J18"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1253,12 +1618,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1266,12 +1631,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ACUD SysSpec.xlsx
+++ b/ACUD SysSpec.xlsx
@@ -442,7 +442,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W142 H1520</t>
+    <t>W142 H1530</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,11 +574,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -587,16 +590,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,7 +906,7 @@
   <dimension ref="B2:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999" outlineLevelRow="1"/>
@@ -931,61 +931,61 @@
       </c>
     </row>
     <row r="4" spans="2:13" collapsed="1">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="12"/>
       <c r="F8" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="12"/>
       <c r="F9" s="1" t="s">
         <v>101</v>
       </c>
@@ -998,28 +998,28 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:13" collapsed="1">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="1" t="s">
         <v>98</v>
       </c>
@@ -1033,8 +1033,8 @@
       </c>
     </row>
     <row r="15" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="1" t="s">
         <v>99</v>
       </c>
@@ -1091,22 +1091,22 @@
       <c r="C21" s="5"/>
     </row>
     <row r="24" spans="2:13" collapsed="1">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="8" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="2:13" hidden="1" outlineLevel="1">
       <c r="B25" s="1" t="s">
@@ -1149,22 +1149,22 @@
       </c>
     </row>
     <row r="32" spans="2:13" collapsed="1">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="8" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
     </row>
     <row r="33" spans="2:14" hidden="1" outlineLevel="1">
       <c r="E33" s="3" t="s">
@@ -1300,22 +1300,22 @@
       </c>
     </row>
     <row r="43" spans="2:14" collapsed="1">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="8" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
     </row>
     <row r="44" spans="2:14" hidden="1" outlineLevel="1">
       <c r="B44" s="1" t="s">
@@ -1704,25 +1704,28 @@
       </c>
     </row>
     <row r="86" spans="2:14">
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="8" t="s">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:M43"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="F86:M86"/>
     <mergeCell ref="F4:M4"/>
@@ -1739,9 +1742,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:M43"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
